--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67AC4AE9-E6EE-4DB5-90D7-11FCF2F488E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD041CA0-2EC2-4FFC-AB20-304BC5653FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
@@ -102,18 +102,12 @@
     <t>bc</t>
   </si>
   <si>
-    <t>Actor1002, Actor2010</t>
-  </si>
-  <si>
     <t>InvasionUI_WedExpected</t>
   </si>
   <si>
     <t>GO</t>
   </si>
   <si>
-    <t>Actor1005</t>
-  </si>
-  <si>
     <t>InvasionUI_ThuExpected</t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>InvasionUI_SatExpected</t>
+  </si>
+  <si>
+    <t>Actor1002, Actor2010, Actor1141, Actor0240</t>
+  </si>
+  <si>
+    <t>Actor1005, Actor0037, Actor1039, Actor1108, Actor3117</t>
   </si>
 </sst>
 </file>
@@ -1040,16 +1040,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
         <v>15</v>
@@ -1075,16 +1075,16 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
         <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
         <v>15</v>
@@ -1110,16 +1110,16 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
         <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -1145,16 +1145,16 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
         <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -1180,16 +1180,16 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
         <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -1215,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
         <v>22</v>
@@ -1247,10 +1247,10 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
         <v>22</v>
@@ -1279,10 +1279,10 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
         <v>22</v>
@@ -1311,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
         <v>22</v>
@@ -1343,10 +1343,10 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
         <v>22</v>
@@ -1378,7 +1378,7 @@
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
@@ -1410,7 +1410,7 @@
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s">
         <v>19</v>
@@ -1442,7 +1442,7 @@
         <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
@@ -1474,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
         <v>19</v>
@@ -1506,7 +1506,7 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
@@ -1538,7 +1538,7 @@
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
         <v>22</v>
@@ -1570,7 +1570,7 @@
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
         <v>22</v>
@@ -1602,7 +1602,7 @@
         <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
         <v>22</v>
@@ -1634,7 +1634,7 @@
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
         <v>22</v>
@@ -1666,7 +1666,7 @@
         <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
         <v>22</v>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD041CA0-2EC2-4FFC-AB20-304BC5653FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959151F6-8539-497B-88E3-EED403E886D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>DI</t>
   </si>
   <si>
-    <t>InvasionUI_rewardMore</t>
-  </si>
-  <si>
     <t>c1002</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Actor1005, Actor0037, Actor1039, Actor1108, Actor3117</t>
+  </si>
+  <si>
+    <t>InvasionUI_RewardMore</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A936F-9B2D-44F2-8661-CC876B98A385}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -557,10 +559,10 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -592,10 +594,10 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -627,10 +629,10 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -662,10 +664,10 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -697,10 +699,10 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -720,19 +722,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -752,19 +754,19 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -784,19 +786,19 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -816,19 +818,19 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -848,19 +850,19 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -880,19 +882,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -912,19 +914,19 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -944,19 +946,19 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -976,19 +978,19 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1008,19 +1010,19 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1040,22 +1042,22 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1075,22 +1077,22 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1110,22 +1112,22 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1145,22 +1147,22 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1180,22 +1182,22 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1215,19 +1217,19 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1247,19 +1249,19 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1279,19 +1281,19 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1311,19 +1313,19 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1343,19 +1345,19 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1375,19 +1377,19 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1407,19 +1409,19 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1439,19 +1441,19 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1471,19 +1473,19 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1503,19 +1505,19 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1535,19 +1537,19 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1567,19 +1569,19 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1599,19 +1601,19 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1631,19 +1633,19 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1663,19 +1665,19 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959151F6-8539-497B-88E3-EED403E886D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F82A8DD-AC66-4670-88B3-F1ABC197A75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="32">
   <si>
     <t>dayWeek|Int</t>
   </si>
@@ -81,18 +81,12 @@
     <t>c1002</t>
   </si>
   <si>
-    <t>Actor2103</t>
-  </si>
-  <si>
     <t>InvasionUI_MonExpected</t>
   </si>
   <si>
     <t>bm</t>
   </si>
   <si>
-    <t>Actor0201</t>
-  </si>
-  <si>
     <t>InvasionUI_TueExpected</t>
   </si>
   <si>
@@ -121,6 +115,18 @@
   </si>
   <si>
     <t>InvasionUI_RewardMore</t>
+  </si>
+  <si>
+    <t>Actor2103, Actor0007, Actor2011, Actor1216</t>
+  </si>
+  <si>
+    <t>Actor0201, Actor2015, Actor2120, Actor0113, Actor0104, Actor3231</t>
+  </si>
+  <si>
+    <t>Actor0201, Actor3019, Actor1029, Actor1109, Actor2238</t>
+  </si>
+  <si>
+    <t>Actor2103, Actor3021, Actor0024, Actor0125</t>
   </si>
 </sst>
 </file>
@@ -486,9 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A936F-9B2D-44F2-8661-CC876B98A385}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -559,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -594,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -629,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -664,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -699,7 +703,7 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -722,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
@@ -754,16 +758,16 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -786,16 +790,16 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
@@ -818,16 +822,16 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -850,16 +854,16 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -882,16 +886,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
@@ -914,16 +918,16 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
         <v>15</v>
@@ -946,16 +950,16 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
         <v>15</v>
@@ -978,16 +982,16 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
         <v>15</v>
@@ -1010,16 +1014,16 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
         <v>15</v>
@@ -1042,19 +1046,19 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
         <v>15</v>
@@ -1077,19 +1081,19 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
         <v>15</v>
@@ -1112,19 +1116,19 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s">
         <v>15</v>
@@ -1147,19 +1151,19 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K20" t="s">
         <v>15</v>
@@ -1182,19 +1186,19 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K21" t="s">
         <v>15</v>
@@ -1217,16 +1221,16 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K22" t="s">
         <v>15</v>
@@ -1249,16 +1253,16 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
         <v>15</v>
@@ -1281,16 +1285,16 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K24" t="s">
         <v>15</v>
@@ -1313,16 +1317,16 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
@@ -1345,16 +1349,16 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
         <v>15</v>
@@ -1377,16 +1381,16 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
         <v>15</v>
@@ -1409,16 +1413,16 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K28" t="s">
         <v>15</v>
@@ -1441,16 +1445,16 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
         <v>15</v>
@@ -1473,16 +1477,16 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K30" t="s">
         <v>15</v>
@@ -1505,16 +1509,16 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
         <v>15</v>
@@ -1537,16 +1541,16 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K32" t="s">
         <v>15</v>
@@ -1569,16 +1573,16 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K33" t="s">
         <v>15</v>
@@ -1601,16 +1605,16 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K34" t="s">
         <v>15</v>
@@ -1633,16 +1637,16 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K35" t="s">
         <v>15</v>
@@ -1665,16 +1669,16 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K36" t="s">
         <v>15</v>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F82A8DD-AC66-4670-88B3-F1ABC197A75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363F5CC9-480D-4B03-AA11-4E8D1CCDE300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>dropId|String</t>
   </si>
   <si>
-    <t>Actor0201, Actor0030, Actor3021, Actor2128, Actor3114</t>
-  </si>
-  <si>
     <t>InvasionUI_SunExpected</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Actor2103, Actor3021, Actor0024, Actor0125</t>
+  </si>
+  <si>
+    <t>Actor0201, Actor0030, Actor3022, Actor2128, Actor3114</t>
   </si>
 </sst>
 </file>
@@ -551,22 +551,22 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -586,22 +586,22 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -621,22 +621,22 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -656,22 +656,22 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -691,22 +691,22 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -726,19 +726,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -758,19 +758,19 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -790,19 +790,19 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -822,19 +822,19 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -854,19 +854,19 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -886,19 +886,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
         <v>18</v>
       </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -918,19 +918,19 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
         <v>18</v>
       </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -950,19 +950,19 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
         <v>18</v>
       </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -982,19 +982,19 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1014,19 +1014,19 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
         <v>18</v>
       </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1046,22 +1046,22 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1081,22 +1081,22 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1116,22 +1116,22 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1151,22 +1151,22 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
         <v>20</v>
       </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1186,22 +1186,22 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1221,19 +1221,19 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1253,19 +1253,19 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1285,19 +1285,19 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1317,19 +1317,19 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1349,19 +1349,19 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1381,19 +1381,19 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1413,19 +1413,19 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1445,19 +1445,19 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1477,19 +1477,19 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1509,19 +1509,19 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1541,19 +1541,19 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1573,19 +1573,19 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1605,19 +1605,19 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1637,19 +1637,19 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1669,19 +1669,19 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363F5CC9-480D-4B03-AA11-4E8D1CCDE300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A995696C-00E3-4CDD-BCBD-551768C2A59E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
@@ -492,7 +492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A936F-9B2D-44F2-8661-CC876B98A385}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -726,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -758,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -790,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -822,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -854,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1046,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
@@ -1081,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -1116,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -1151,7 +1153,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -1186,7 +1188,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A995696C-00E3-4CDD-BCBD-551768C2A59E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B4E53-B3B9-4FDB-80AE-99362D701281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="66">
   <si>
     <t>dayWeek|Int</t>
   </si>
@@ -75,9 +75,6 @@
     <t>DI</t>
   </si>
   <si>
-    <t>c1002</t>
-  </si>
-  <si>
     <t>InvasionUI_MonExpected</t>
   </si>
   <si>
@@ -127,6 +124,111 @@
   </si>
   <si>
     <t>Actor0201, Actor0030, Actor3022, Actor2128, Actor3114</t>
+  </si>
+  <si>
+    <t>inva_0_1</t>
+  </si>
+  <si>
+    <t>inva_0_2</t>
+  </si>
+  <si>
+    <t>inva_0_3</t>
+  </si>
+  <si>
+    <t>inva_0_4</t>
+  </si>
+  <si>
+    <t>inva_0_5</t>
+  </si>
+  <si>
+    <t>inva_1_1</t>
+  </si>
+  <si>
+    <t>inva_1_2</t>
+  </si>
+  <si>
+    <t>inva_1_3</t>
+  </si>
+  <si>
+    <t>inva_1_4</t>
+  </si>
+  <si>
+    <t>inva_1_5</t>
+  </si>
+  <si>
+    <t>inva_2_1</t>
+  </si>
+  <si>
+    <t>inva_2_2</t>
+  </si>
+  <si>
+    <t>inva_2_3</t>
+  </si>
+  <si>
+    <t>inva_2_4</t>
+  </si>
+  <si>
+    <t>inva_2_5</t>
+  </si>
+  <si>
+    <t>inva_3_1</t>
+  </si>
+  <si>
+    <t>inva_3_2</t>
+  </si>
+  <si>
+    <t>inva_3_3</t>
+  </si>
+  <si>
+    <t>inva_3_4</t>
+  </si>
+  <si>
+    <t>inva_3_5</t>
+  </si>
+  <si>
+    <t>inva_4_1</t>
+  </si>
+  <si>
+    <t>inva_4_2</t>
+  </si>
+  <si>
+    <t>inva_4_3</t>
+  </si>
+  <si>
+    <t>inva_4_4</t>
+  </si>
+  <si>
+    <t>inva_4_5</t>
+  </si>
+  <si>
+    <t>inva_5_1</t>
+  </si>
+  <si>
+    <t>inva_5_2</t>
+  </si>
+  <si>
+    <t>inva_5_3</t>
+  </si>
+  <si>
+    <t>inva_5_4</t>
+  </si>
+  <si>
+    <t>inva_5_5</t>
+  </si>
+  <si>
+    <t>inva_6_1</t>
+  </si>
+  <si>
+    <t>inva_6_2</t>
+  </si>
+  <si>
+    <t>inva_6_3</t>
+  </si>
+  <si>
+    <t>inva_6_4</t>
+  </si>
+  <si>
+    <t>inva_6_5</t>
   </si>
 </sst>
 </file>
@@ -492,9 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A936F-9B2D-44F2-8661-CC876B98A385}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -553,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -565,10 +665,10 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -588,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -600,10 +700,10 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -623,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -635,10 +735,10 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -658,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -670,10 +770,10 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -693,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -705,10 +805,10 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -728,19 +828,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -760,19 +860,19 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -792,19 +892,19 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -824,19 +924,19 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -856,19 +956,19 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -888,19 +988,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -920,19 +1020,19 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -952,19 +1052,19 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -984,19 +1084,19 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1016,19 +1116,19 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1048,22 +1148,22 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1083,22 +1183,22 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1118,22 +1218,22 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1153,22 +1253,22 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1188,22 +1288,22 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1223,19 +1323,19 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1255,19 +1355,19 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1287,19 +1387,19 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1319,19 +1419,19 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1351,19 +1451,19 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1383,19 +1483,19 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1415,19 +1515,19 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1447,19 +1547,19 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1479,19 +1579,19 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1511,19 +1611,19 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K31" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1543,19 +1643,19 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1575,19 +1675,19 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1607,19 +1707,19 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K34" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1639,19 +1739,19 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K35" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1671,19 +1771,19 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K36" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B4E53-B3B9-4FDB-80AE-99362D701281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411C9A82-216A-4502-A93F-E7E7042B1D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="67">
   <si>
     <t>dayWeek|Int</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>inva_6_5</t>
+  </si>
+  <si>
+    <t>killSp|Float</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A936F-9B2D-44F2-8661-CC876B98A385}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +604,7 @@
     <col min="6" max="6" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +638,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -670,8 +676,11 @@
       <c r="K2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -705,8 +714,11 @@
       <c r="K3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -740,8 +752,11 @@
       <c r="K4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -775,8 +790,11 @@
       <c r="K5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -810,8 +828,11 @@
       <c r="K6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -842,8 +863,11 @@
       <c r="K7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -874,8 +898,11 @@
       <c r="K8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -906,8 +933,11 @@
       <c r="K9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -938,8 +968,11 @@
       <c r="K10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -970,8 +1003,11 @@
       <c r="K11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1002,8 +1038,11 @@
       <c r="K12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1034,8 +1073,11 @@
       <c r="K13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1066,8 +1108,11 @@
       <c r="K14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1098,8 +1143,11 @@
       <c r="K15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1130,8 +1178,11 @@
       <c r="K16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1165,8 +1216,11 @@
       <c r="K17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1200,8 +1254,11 @@
       <c r="K18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1235,8 +1292,11 @@
       <c r="K19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1270,8 +1330,11 @@
       <c r="K20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1305,8 +1368,11 @@
       <c r="K21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1337,8 +1403,11 @@
       <c r="K22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1369,8 +1438,11 @@
       <c r="K23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1401,8 +1473,11 @@
       <c r="K24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1433,8 +1508,11 @@
       <c r="K25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1465,8 +1543,11 @@
       <c r="K26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1497,8 +1578,11 @@
       <c r="K27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1529,8 +1613,11 @@
       <c r="K28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1561,8 +1648,11 @@
       <c r="K29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1593,8 +1683,11 @@
       <c r="K30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1625,8 +1718,11 @@
       <c r="K31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1657,8 +1753,11 @@
       <c r="K32" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1689,8 +1788,11 @@
       <c r="K33" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1721,8 +1823,11 @@
       <c r="K34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1753,8 +1858,11 @@
       <c r="K35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1784,6 +1892,9 @@
       </c>
       <c r="K36" t="s">
         <v>65</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411C9A82-216A-4502-A93F-E7E7042B1D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D292D-676B-417A-A616-5C05C1748ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
@@ -120,12 +120,6 @@
     <t>Actor0201, Actor3019, Actor1029, Actor1109, Actor2238</t>
   </si>
   <si>
-    <t>Actor2103, Actor3021, Actor0024, Actor0125</t>
-  </si>
-  <si>
-    <t>Actor0201, Actor0030, Actor3022, Actor2128, Actor3114</t>
-  </si>
-  <si>
     <t>inva_0_1</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>killSp|Float</t>
+  </si>
+  <si>
+    <t>Actor0201, Actor0030, Actor3022, Actor3114</t>
+  </si>
+  <si>
+    <t>Actor2103, Actor3021, Actor0024, Actor0125, Actor2128</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A936F-9B2D-44F2-8661-CC876B98A385}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -639,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -659,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -674,10 +676,10 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -697,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -712,10 +714,10 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -735,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -750,10 +752,10 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L4">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -773,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -788,10 +790,10 @@
         <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -811,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -826,10 +828,10 @@
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -861,10 +863,10 @@
         <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -896,10 +898,10 @@
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -931,10 +933,10 @@
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -966,10 +968,10 @@
         <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1001,10 +1003,10 @@
         <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1036,10 +1038,10 @@
         <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1071,10 +1073,10 @@
         <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1106,10 +1108,10 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1141,10 +1143,10 @@
         <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1176,10 +1178,10 @@
         <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1214,10 +1216,10 @@
         <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1252,10 +1254,10 @@
         <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1290,10 +1292,10 @@
         <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1328,10 +1330,10 @@
         <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1366,10 +1368,10 @@
         <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1401,10 +1403,10 @@
         <v>25</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1436,10 +1438,10 @@
         <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1471,10 +1473,10 @@
         <v>25</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1506,10 +1508,10 @@
         <v>25</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1541,10 +1543,10 @@
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1576,10 +1578,10 @@
         <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1611,10 +1613,10 @@
         <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1646,10 +1648,10 @@
         <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1681,10 +1683,10 @@
         <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1716,10 +1718,10 @@
         <v>25</v>
       </c>
       <c r="K31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1739,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
         <v>22</v>
@@ -1751,7 +1753,7 @@
         <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L32">
         <v>20</v>
@@ -1774,7 +1776,7 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>22</v>
@@ -1786,7 +1788,7 @@
         <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33">
         <v>20</v>
@@ -1809,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>22</v>
@@ -1821,7 +1823,7 @@
         <v>25</v>
       </c>
       <c r="K34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L34">
         <v>20</v>
@@ -1844,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
         <v>22</v>
@@ -1856,7 +1858,7 @@
         <v>25</v>
       </c>
       <c r="K35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L35">
         <v>20</v>
@@ -1879,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
         <v>22</v>
@@ -1891,7 +1893,7 @@
         <v>25</v>
       </c>
       <c r="K36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L36">
         <v>20</v>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D292D-676B-417A-A616-5C05C1748ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09488264-B6A2-42E5-AAD1-92FE40FA26EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>InvasionUI_SatExpected</t>
   </si>
   <si>
-    <t>Actor1002, Actor2010, Actor1141, Actor0240</t>
-  </si>
-  <si>
     <t>Actor1005, Actor0037, Actor1039, Actor1108, Actor3117</t>
   </si>
   <si>
@@ -228,10 +225,13 @@
     <t>killSp|Float</t>
   </si>
   <si>
-    <t>Actor0201, Actor0030, Actor3022, Actor3114</t>
-  </si>
-  <si>
-    <t>Actor2103, Actor3021, Actor0024, Actor0125, Actor2128</t>
+    <t>Actor1002, Actor3021, Actor0024, Actor0125, Actor2128</t>
+  </si>
+  <si>
+    <t>Actor0201, Actor2010, Actor1141, Actor0240</t>
+  </si>
+  <si>
+    <t>Actor2103, Actor0030, Actor3022, Actor3114</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -673,13 +673,13 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -711,13 +711,13 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -737,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -749,13 +749,13 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -775,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -787,13 +787,13 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -825,13 +825,13 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -860,13 +860,13 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -895,13 +895,13 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -921,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -930,13 +930,13 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -965,13 +965,13 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -991,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1000,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1035,13 +1035,13 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1070,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1105,13 +1105,13 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1140,13 +1140,13 @@
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1175,13 +1175,13 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -1213,10 +1213,10 @@
         <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17">
         <v>40</v>
@@ -1239,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
@@ -1251,10 +1251,10 @@
         <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18">
         <v>40</v>
@@ -1277,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -1289,10 +1289,10 @@
         <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19">
         <v>40</v>
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -1327,10 +1327,10 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L20">
         <v>40</v>
@@ -1353,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -1365,10 +1365,10 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L21">
         <v>40</v>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -1400,10 +1400,10 @@
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L22">
         <v>30</v>
@@ -1426,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
@@ -1435,10 +1435,10 @@
         <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23">
         <v>30</v>
@@ -1461,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -1470,10 +1470,10 @@
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L24">
         <v>30</v>
@@ -1496,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -1505,10 +1505,10 @@
         <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25">
         <v>30</v>
@@ -1531,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -1540,10 +1540,10 @@
         <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L26">
         <v>30</v>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
@@ -1575,10 +1575,10 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27">
         <v>30</v>
@@ -1601,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
@@ -1610,10 +1610,10 @@
         <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L28">
         <v>30</v>
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G29" t="s">
         <v>21</v>
@@ -1645,10 +1645,10 @@
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L29">
         <v>30</v>
@@ -1671,7 +1671,7 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
         <v>21</v>
@@ -1680,10 +1680,10 @@
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L30">
         <v>30</v>
@@ -1706,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
         <v>21</v>
@@ -1715,10 +1715,10 @@
         <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L31">
         <v>30</v>
@@ -1750,13 +1750,13 @@
         <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1820,13 +1820,13 @@
         <v>17</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1855,13 +1855,13 @@
         <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -1890,13 +1890,13 @@
         <v>17</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09488264-B6A2-42E5-AAD1-92FE40FA26EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EFE5A6-121B-403D-B74C-D7CC5956BF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
@@ -1581,7 +1581,7 @@
         <v>53</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1616,7 +1616,7 @@
         <v>54</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1651,7 +1651,7 @@
         <v>55</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>56</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1721,7 +1721,7 @@
         <v>57</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EFE5A6-121B-403D-B74C-D7CC5956BF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760003AE-0AC1-492E-920C-414B39F18304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="95">
   <si>
     <t>dayWeek|Int</t>
   </si>
@@ -232,6 +232,90 @@
   </si>
   <si>
     <t>Actor2103, Actor0030, Actor3022, Actor3114</t>
+  </si>
+  <si>
+    <t>inva_0_6</t>
+  </si>
+  <si>
+    <t>inva_0_7</t>
+  </si>
+  <si>
+    <t>inva_0_8</t>
+  </si>
+  <si>
+    <t>inva_0_9</t>
+  </si>
+  <si>
+    <t>inva_1_6</t>
+  </si>
+  <si>
+    <t>inva_1_7</t>
+  </si>
+  <si>
+    <t>inva_1_8</t>
+  </si>
+  <si>
+    <t>inva_1_9</t>
+  </si>
+  <si>
+    <t>inva_2_6</t>
+  </si>
+  <si>
+    <t>inva_2_7</t>
+  </si>
+  <si>
+    <t>inva_2_8</t>
+  </si>
+  <si>
+    <t>inva_2_9</t>
+  </si>
+  <si>
+    <t>inva_3_6</t>
+  </si>
+  <si>
+    <t>inva_3_7</t>
+  </si>
+  <si>
+    <t>inva_3_8</t>
+  </si>
+  <si>
+    <t>inva_3_9</t>
+  </si>
+  <si>
+    <t>inva_4_6</t>
+  </si>
+  <si>
+    <t>inva_4_7</t>
+  </si>
+  <si>
+    <t>inva_4_8</t>
+  </si>
+  <si>
+    <t>inva_4_9</t>
+  </si>
+  <si>
+    <t>inva_5_6</t>
+  </si>
+  <si>
+    <t>inva_5_7</t>
+  </si>
+  <si>
+    <t>inva_5_8</t>
+  </si>
+  <si>
+    <t>inva_5_9</t>
+  </si>
+  <si>
+    <t>inva_6_6</t>
+  </si>
+  <si>
+    <t>inva_6_7</t>
+  </si>
+  <si>
+    <t>inva_6_8</t>
+  </si>
+  <si>
+    <t>inva_6_9</t>
   </si>
 </sst>
 </file>
@@ -595,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A936F-9B2D-44F2-8661-CC876B98A385}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -696,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -734,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -772,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -810,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
@@ -836,142 +920,154 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -979,16 +1075,16 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1100</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1003,7 +1099,7 @@
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L11">
         <v>20</v>
@@ -1011,390 +1107,375 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
@@ -1403,7 +1484,7 @@
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L22">
         <v>30</v>
@@ -1411,25 +1492,25 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
         <v>17</v>
@@ -1438,7 +1519,7 @@
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L23">
         <v>30</v>
@@ -1446,25 +1527,25 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
@@ -1473,7 +1554,7 @@
         <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L24">
         <v>30</v>
@@ -1481,25 +1562,25 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
@@ -1508,7 +1589,7 @@
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="L25">
         <v>30</v>
@@ -1516,25 +1597,25 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
         <v>17</v>
@@ -1543,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L26">
         <v>30</v>
@@ -1551,351 +1632,1358 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
         <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s">
         <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
       </c>
       <c r="J29" t="s">
         <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
       </c>
       <c r="J31" t="s">
         <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
       </c>
       <c r="J33" t="s">
         <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>19</v>
       </c>
       <c r="J34" t="s">
         <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
       </c>
       <c r="J35" t="s">
         <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36">
+        <v>1300</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" t="s">
+        <v>81</v>
+      </c>
+      <c r="L36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>1300</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" t="s">
+        <v>82</v>
+      </c>
+      <c r="L37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1400</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1400</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>49</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1400</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>1400</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>1400</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>1400</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>1400</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" t="s">
+        <v>84</v>
+      </c>
+      <c r="L44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>1400</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>85</v>
+      </c>
+      <c r="L45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>1400</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" t="s">
+        <v>86</v>
+      </c>
+      <c r="L46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1500</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>1500</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>1500</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>1500</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>1500</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" t="s">
+        <v>57</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>1500</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" t="s">
+        <v>87</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>1500</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" t="s">
+        <v>88</v>
+      </c>
+      <c r="L53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>1500</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" t="s">
+        <v>89</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>1500</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" t="s">
+        <v>90</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>1600</v>
       </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>1600</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" t="s">
+        <v>59</v>
+      </c>
+      <c r="L57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>1600</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" t="s">
+        <v>60</v>
+      </c>
+      <c r="L58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>1600</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" t="s">
+        <v>61</v>
+      </c>
+      <c r="L59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>1600</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" t="s">
+        <v>62</v>
+      </c>
+      <c r="L60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>1600</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>1600</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" t="s">
+        <v>92</v>
+      </c>
+      <c r="L62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>1600</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>93</v>
+      </c>
+      <c r="L63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
         <v>9</v>
       </c>
-      <c r="F36" t="s">
+      <c r="C64">
+        <v>1600</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G64" t="s">
         <v>22</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H64" t="s">
         <v>17</v>
       </c>
-      <c r="J36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36">
+      <c r="J64" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64" t="s">
+        <v>94</v>
+      </c>
+      <c r="L64">
         <v>30</v>
       </c>
     </row>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760003AE-0AC1-492E-920C-414B39F18304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AC6FBB-2DEF-4933-BD98-2342EC104BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>InvasionUI_RewardMore</t>
   </si>
   <si>
-    <t>Actor2103, Actor0007, Actor2011, Actor1216</t>
-  </si>
-  <si>
     <t>Actor0201, Actor2015, Actor2120, Actor0113, Actor0104, Actor3231</t>
   </si>
   <si>
@@ -316,6 +313,9 @@
   </si>
   <si>
     <t>inva_6_9</t>
+  </si>
+  <si>
+    <t>Actor2103, Actor0007, Actor2011, Actor1216, Actor1218</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -725,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -760,7 +760,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2">
         <v>40</v>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -798,7 +798,7 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3">
         <v>40</v>
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -836,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4">
         <v>40</v>
@@ -859,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -874,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5">
         <v>40</v>
@@ -897,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -912,7 +912,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6">
         <v>40</v>
@@ -935,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -950,7 +950,7 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7">
         <v>40</v>
@@ -973,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -988,7 +988,7 @@
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8">
         <v>40</v>
@@ -1011,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -1026,7 +1026,7 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9">
         <v>40</v>
@@ -1049,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1064,7 +1064,7 @@
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10">
         <v>40</v>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1099,7 +1099,7 @@
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11">
         <v>20</v>
@@ -1122,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -1134,7 +1134,7 @@
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12">
         <v>20</v>
@@ -1157,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1169,7 +1169,7 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13">
         <v>20</v>
@@ -1192,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -1204,7 +1204,7 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>20</v>
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -1239,7 +1239,7 @@
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15">
         <v>20</v>
@@ -1262,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -1274,7 +1274,7 @@
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -1309,7 +1309,7 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -1332,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1344,7 +1344,7 @@
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -1379,7 +1379,7 @@
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19">
         <v>20</v>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
@@ -1414,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L20">
         <v>30</v>
@@ -1437,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
@@ -1449,7 +1449,7 @@
         <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21">
         <v>30</v>
@@ -1472,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
@@ -1484,7 +1484,7 @@
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L22">
         <v>30</v>
@@ -1507,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
@@ -1519,7 +1519,7 @@
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L23">
         <v>30</v>
@@ -1542,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -1554,7 +1554,7 @@
         <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L24">
         <v>30</v>
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -1589,7 +1589,7 @@
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L25">
         <v>30</v>
@@ -1612,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
@@ -1624,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L26">
         <v>30</v>
@@ -1647,7 +1647,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
@@ -1659,7 +1659,7 @@
         <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L27">
         <v>30</v>
@@ -1682,7 +1682,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -1694,7 +1694,7 @@
         <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L28">
         <v>30</v>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
         <v>18</v>
@@ -1732,7 +1732,7 @@
         <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L29">
         <v>40</v>
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
@@ -1770,7 +1770,7 @@
         <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L30">
         <v>40</v>
@@ -1793,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
@@ -1808,7 +1808,7 @@
         <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L31">
         <v>40</v>
@@ -1831,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -1846,7 +1846,7 @@
         <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32">
         <v>40</v>
@@ -1869,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
@@ -1884,7 +1884,7 @@
         <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L33">
         <v>40</v>
@@ -1907,7 +1907,7 @@
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s">
         <v>18</v>
@@ -1922,7 +1922,7 @@
         <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L34">
         <v>40</v>
@@ -1945,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
@@ -1960,7 +1960,7 @@
         <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L35">
         <v>40</v>
@@ -1983,7 +1983,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
         <v>18</v>
@@ -1998,7 +1998,7 @@
         <v>24</v>
       </c>
       <c r="K36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L36">
         <v>40</v>
@@ -2021,7 +2021,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
@@ -2036,7 +2036,7 @@
         <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L37">
         <v>40</v>
@@ -2071,7 +2071,7 @@
         <v>24</v>
       </c>
       <c r="K38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L38">
         <v>30</v>
@@ -2106,7 +2106,7 @@
         <v>24</v>
       </c>
       <c r="K39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L39">
         <v>30</v>
@@ -2141,7 +2141,7 @@
         <v>24</v>
       </c>
       <c r="K40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L40">
         <v>30</v>
@@ -2176,7 +2176,7 @@
         <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L41">
         <v>30</v>
@@ -2211,7 +2211,7 @@
         <v>24</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L42">
         <v>30</v>
@@ -2246,7 +2246,7 @@
         <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L43">
         <v>30</v>
@@ -2281,7 +2281,7 @@
         <v>24</v>
       </c>
       <c r="K44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L44">
         <v>30</v>
@@ -2316,7 +2316,7 @@
         <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L45">
         <v>30</v>
@@ -2351,7 +2351,7 @@
         <v>24</v>
       </c>
       <c r="K46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L46">
         <v>30</v>
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
         <v>21</v>
@@ -2386,7 +2386,7 @@
         <v>24</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L47">
         <v>20</v>
@@ -2409,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
         <v>21</v>
@@ -2421,7 +2421,7 @@
         <v>24</v>
       </c>
       <c r="K48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L48">
         <v>20</v>
@@ -2444,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" t="s">
         <v>21</v>
@@ -2456,7 +2456,7 @@
         <v>24</v>
       </c>
       <c r="K49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L49">
         <v>20</v>
@@ -2479,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" t="s">
         <v>21</v>
@@ -2491,7 +2491,7 @@
         <v>24</v>
       </c>
       <c r="K50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L50">
         <v>20</v>
@@ -2514,7 +2514,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
@@ -2526,7 +2526,7 @@
         <v>24</v>
       </c>
       <c r="K51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L51">
         <v>20</v>
@@ -2549,7 +2549,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
         <v>21</v>
@@ -2561,7 +2561,7 @@
         <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L52">
         <v>20</v>
@@ -2584,7 +2584,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" t="s">
         <v>21</v>
@@ -2596,7 +2596,7 @@
         <v>24</v>
       </c>
       <c r="K53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L53">
         <v>20</v>
@@ -2619,7 +2619,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
         <v>21</v>
@@ -2631,7 +2631,7 @@
         <v>24</v>
       </c>
       <c r="K54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L54">
         <v>20</v>
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" t="s">
         <v>21</v>
@@ -2666,7 +2666,7 @@
         <v>24</v>
       </c>
       <c r="K55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L55">
         <v>20</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" t="s">
         <v>22</v>
@@ -2701,7 +2701,7 @@
         <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L56">
         <v>30</v>
@@ -2724,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" t="s">
         <v>22</v>
@@ -2736,7 +2736,7 @@
         <v>24</v>
       </c>
       <c r="K57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L57">
         <v>30</v>
@@ -2759,7 +2759,7 @@
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" t="s">
         <v>22</v>
@@ -2771,7 +2771,7 @@
         <v>24</v>
       </c>
       <c r="K58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L58">
         <v>30</v>
@@ -2794,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" t="s">
         <v>22</v>
@@ -2806,7 +2806,7 @@
         <v>24</v>
       </c>
       <c r="K59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L59">
         <v>30</v>
@@ -2829,7 +2829,7 @@
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" t="s">
         <v>22</v>
@@ -2841,7 +2841,7 @@
         <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L60">
         <v>30</v>
@@ -2864,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" t="s">
         <v>22</v>
@@ -2876,7 +2876,7 @@
         <v>24</v>
       </c>
       <c r="K61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L61">
         <v>30</v>
@@ -2899,7 +2899,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
         <v>22</v>
@@ -2911,7 +2911,7 @@
         <v>24</v>
       </c>
       <c r="K62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62">
         <v>30</v>
@@ -2934,7 +2934,7 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" t="s">
         <v>22</v>
@@ -2946,7 +2946,7 @@
         <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L63">
         <v>30</v>
@@ -2969,7 +2969,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" t="s">
         <v>22</v>
@@ -2981,7 +2981,7 @@
         <v>24</v>
       </c>
       <c r="K64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L64">
         <v>30</v>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AC6FBB-2DEF-4933-BD98-2342EC104BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86598EE1-ED15-4C87-8DFA-754A008422AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -102,9 +105,6 @@
     <t>InvasionUI_SatExpected</t>
   </si>
   <si>
-    <t>Actor1005, Actor0037, Actor1039, Actor1108, Actor3117</t>
-  </si>
-  <si>
     <t>InvasionUI_RewardMore</t>
   </si>
   <si>
@@ -228,9 +228,6 @@
     <t>Actor0201, Actor2010, Actor1141, Actor0240</t>
   </si>
   <si>
-    <t>Actor2103, Actor0030, Actor3022, Actor3114</t>
-  </si>
-  <si>
     <t>inva_0_6</t>
   </si>
   <si>
@@ -316,6 +313,12 @@
   </si>
   <si>
     <t>Actor2103, Actor0007, Actor2011, Actor1216, Actor1218</t>
+  </si>
+  <si>
+    <t>Actor1005, Actor0037, Actor1039, Actor1108, Actor3117, Actor2235</t>
+  </si>
+  <si>
+    <t>Actor2103, Actor0030, Actor3022, Actor3114, Actor3212, Actor0236</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -725,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -745,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -757,10 +760,10 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2">
         <v>40</v>
@@ -783,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -795,10 +798,10 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3">
         <v>40</v>
@@ -821,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -833,10 +836,10 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4">
         <v>40</v>
@@ -859,7 +862,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -871,10 +874,10 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5">
         <v>40</v>
@@ -897,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -909,10 +912,10 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6">
         <v>40</v>
@@ -935,7 +938,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -947,10 +950,10 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L7">
         <v>40</v>
@@ -973,7 +976,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -985,10 +988,10 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L8">
         <v>40</v>
@@ -1011,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -1023,10 +1026,10 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L9">
         <v>40</v>
@@ -1049,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1061,10 +1064,10 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L10">
         <v>40</v>
@@ -1087,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1096,10 +1099,10 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11">
         <v>20</v>
@@ -1122,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -1131,10 +1134,10 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12">
         <v>20</v>
@@ -1157,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1166,10 +1169,10 @@
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13">
         <v>20</v>
@@ -1192,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -1201,10 +1204,10 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L14">
         <v>20</v>
@@ -1227,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -1236,10 +1239,10 @@
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>20</v>
@@ -1262,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -1271,10 +1274,10 @@
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -1297,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -1306,10 +1309,10 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -1332,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1341,10 +1344,10 @@
         <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -1367,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -1376,10 +1379,10 @@
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L19">
         <v>20</v>
@@ -1402,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
@@ -1411,10 +1414,10 @@
         <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20">
         <v>30</v>
@@ -1437,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
@@ -1446,10 +1449,10 @@
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L21">
         <v>30</v>
@@ -1472,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
@@ -1481,10 +1484,10 @@
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>30</v>
@@ -1507,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
@@ -1516,10 +1519,10 @@
         <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23">
         <v>30</v>
@@ -1542,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -1551,10 +1554,10 @@
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24">
         <v>30</v>
@@ -1577,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -1586,10 +1589,10 @@
         <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L25">
         <v>30</v>
@@ -1612,7 +1615,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
@@ -1621,10 +1624,10 @@
         <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L26">
         <v>30</v>
@@ -1647,7 +1650,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
@@ -1656,10 +1659,10 @@
         <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L27">
         <v>30</v>
@@ -1682,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -1691,10 +1694,10 @@
         <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L28">
         <v>30</v>
@@ -1717,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s">
         <v>18</v>
@@ -1729,10 +1732,10 @@
         <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L29">
         <v>40</v>
@@ -1755,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
@@ -1767,10 +1770,10 @@
         <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L30">
         <v>40</v>
@@ -1793,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
@@ -1805,10 +1808,10 @@
         <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L31">
         <v>40</v>
@@ -1831,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -1843,10 +1846,10 @@
         <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L32">
         <v>40</v>
@@ -1869,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
@@ -1881,10 +1884,10 @@
         <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L33">
         <v>40</v>
@@ -1907,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s">
         <v>18</v>
@@ -1919,10 +1922,10 @@
         <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L34">
         <v>40</v>
@@ -1945,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
@@ -1957,10 +1960,10 @@
         <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L35">
         <v>40</v>
@@ -1983,7 +1986,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s">
         <v>18</v>
@@ -1995,10 +1998,10 @@
         <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L36">
         <v>40</v>
@@ -2021,7 +2024,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
@@ -2033,10 +2036,10 @@
         <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L37">
         <v>40</v>
@@ -2059,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
@@ -2068,10 +2071,10 @@
         <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L38">
         <v>30</v>
@@ -2094,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
@@ -2103,10 +2106,10 @@
         <v>17</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L39">
         <v>30</v>
@@ -2129,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -2138,10 +2141,10 @@
         <v>17</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L40">
         <v>30</v>
@@ -2164,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
@@ -2173,10 +2176,10 @@
         <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L41">
         <v>30</v>
@@ -2199,7 +2202,7 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -2208,10 +2211,10 @@
         <v>17</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L42">
         <v>30</v>
@@ -2234,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -2243,10 +2246,10 @@
         <v>17</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L43">
         <v>30</v>
@@ -2269,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
@@ -2278,10 +2281,10 @@
         <v>17</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L44">
         <v>30</v>
@@ -2304,7 +2307,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
@@ -2313,10 +2316,10 @@
         <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L45">
         <v>30</v>
@@ -2339,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
@@ -2348,10 +2351,10 @@
         <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L46">
         <v>30</v>
@@ -2374,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
         <v>21</v>
@@ -2383,10 +2386,10 @@
         <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L47">
         <v>20</v>
@@ -2409,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
         <v>21</v>
@@ -2418,10 +2421,10 @@
         <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L48">
         <v>20</v>
@@ -2444,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
         <v>21</v>
@@ -2453,10 +2456,10 @@
         <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L49">
         <v>20</v>
@@ -2479,7 +2482,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
         <v>21</v>
@@ -2488,10 +2491,10 @@
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L50">
         <v>20</v>
@@ -2514,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
@@ -2523,10 +2526,10 @@
         <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L51">
         <v>20</v>
@@ -2549,7 +2552,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
         <v>21</v>
@@ -2558,10 +2561,10 @@
         <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L52">
         <v>20</v>
@@ -2584,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
         <v>21</v>
@@ -2593,10 +2596,10 @@
         <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L53">
         <v>20</v>
@@ -2619,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
         <v>21</v>
@@ -2628,10 +2631,10 @@
         <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L54">
         <v>20</v>
@@ -2654,7 +2657,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
         <v>21</v>
@@ -2663,10 +2666,10 @@
         <v>15</v>
       </c>
       <c r="J55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L55">
         <v>20</v>
@@ -2689,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s">
         <v>22</v>
@@ -2698,10 +2701,10 @@
         <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L56">
         <v>30</v>
@@ -2724,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s">
         <v>22</v>
@@ -2733,10 +2736,10 @@
         <v>17</v>
       </c>
       <c r="J57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L57">
         <v>30</v>
@@ -2759,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s">
         <v>22</v>
@@ -2768,10 +2771,10 @@
         <v>17</v>
       </c>
       <c r="J58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L58">
         <v>30</v>
@@ -2794,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s">
         <v>22</v>
@@ -2803,10 +2806,10 @@
         <v>17</v>
       </c>
       <c r="J59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L59">
         <v>30</v>
@@ -2829,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s">
         <v>22</v>
@@ -2838,10 +2841,10 @@
         <v>17</v>
       </c>
       <c r="J60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L60">
         <v>30</v>
@@ -2864,7 +2867,7 @@
         <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G61" t="s">
         <v>22</v>
@@ -2873,10 +2876,10 @@
         <v>17</v>
       </c>
       <c r="J61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L61">
         <v>30</v>
@@ -2899,7 +2902,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s">
         <v>22</v>
@@ -2908,10 +2911,10 @@
         <v>17</v>
       </c>
       <c r="J62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L62">
         <v>30</v>
@@ -2934,7 +2937,7 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s">
         <v>22</v>
@@ -2943,10 +2946,10 @@
         <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L63">
         <v>30</v>
@@ -2969,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
         <v>22</v>
@@ -2978,10 +2981,10 @@
         <v>17</v>
       </c>
       <c r="J64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L64">
         <v>30</v>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86598EE1-ED15-4C87-8DFA-754A008422AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F869C1E-2DC9-4AD8-B5C0-05FB1FCB9DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="116">
   <si>
     <t>dayWeek|Int</t>
   </si>
@@ -319,6 +319,69 @@
   </si>
   <si>
     <t>Actor2103, Actor0030, Actor3022, Actor3114, Actor3212, Actor0236</t>
+  </si>
+  <si>
+    <t>inva_0_10</t>
+  </si>
+  <si>
+    <t>inva_0_11</t>
+  </si>
+  <si>
+    <t>inva_0_12</t>
+  </si>
+  <si>
+    <t>inva_1_10</t>
+  </si>
+  <si>
+    <t>inva_1_11</t>
+  </si>
+  <si>
+    <t>inva_1_12</t>
+  </si>
+  <si>
+    <t>inva_2_10</t>
+  </si>
+  <si>
+    <t>inva_2_11</t>
+  </si>
+  <si>
+    <t>inva_2_12</t>
+  </si>
+  <si>
+    <t>inva_3_10</t>
+  </si>
+  <si>
+    <t>inva_3_11</t>
+  </si>
+  <si>
+    <t>inva_3_12</t>
+  </si>
+  <si>
+    <t>inva_4_10</t>
+  </si>
+  <si>
+    <t>inva_4_11</t>
+  </si>
+  <si>
+    <t>inva_4_12</t>
+  </si>
+  <si>
+    <t>inva_5_10</t>
+  </si>
+  <si>
+    <t>inva_5_11</t>
+  </si>
+  <si>
+    <t>inva_5_12</t>
+  </si>
+  <si>
+    <t>inva_6_10</t>
+  </si>
+  <si>
+    <t>inva_6_11</t>
+  </si>
+  <si>
+    <t>inva_6_12</t>
   </si>
 </sst>
 </file>
@@ -682,7 +745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A936F-9B2D-44F2-8661-CC876B98A385}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1075,107 +1138,116 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1183,16 +1255,16 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1100</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>62</v>
@@ -1207,7 +1279,7 @@
         <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L14">
         <v>20</v>
@@ -1218,16 +1290,16 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1100</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
@@ -1242,7 +1314,7 @@
         <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L15">
         <v>20</v>
@@ -1253,16 +1325,16 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1100</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>62</v>
@@ -1277,7 +1349,7 @@
         <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -1288,16 +1360,16 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>1100</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>62</v>
@@ -1312,7 +1384,7 @@
         <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -1323,16 +1395,16 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>1100</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
@@ -1347,7 +1419,7 @@
         <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -1358,16 +1430,16 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>1100</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
         <v>62</v>
@@ -1382,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L19">
         <v>20</v>
@@ -1390,212 +1462,212 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1603,16 +1675,16 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1200</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -1627,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="L26">
         <v>30</v>
@@ -1638,16 +1710,16 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1200</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -1662,7 +1734,7 @@
         <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="L27">
         <v>30</v>
@@ -1673,16 +1745,16 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>1200</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>25</v>
@@ -1697,7 +1769,7 @@
         <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="L28">
         <v>30</v>
@@ -1705,355 +1777,328 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2062,33 +2107,36 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>19</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2097,33 +2145,36 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>19</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -2132,33 +2183,36 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="C41">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -2167,33 +2221,36 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
       <c r="C42">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -2202,33 +2259,36 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -2237,33 +2297,36 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
         <v>7</v>
       </c>
       <c r="C44">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D44">
         <v>7</v>
@@ -2272,33 +2335,36 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
       <c r="C45">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D45">
         <v>8</v>
@@ -2307,33 +2373,36 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>19</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>9</v>
       </c>
       <c r="C46">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -2342,360 +2411,372 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>19</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J53" t="s">
         <v>23</v>
       </c>
       <c r="K53" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
         <v>5</v>
       </c>
-      <c r="B54">
-        <v>8</v>
-      </c>
       <c r="C54">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
         <v>17</v>
@@ -2704,7 +2785,7 @@
         <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="L56">
         <v>30</v>
@@ -2712,25 +2793,25 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C57">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
         <v>17</v>
@@ -2739,7 +2820,7 @@
         <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="L57">
         <v>30</v>
@@ -2747,25 +2828,25 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
         <v>17</v>
@@ -2774,7 +2855,7 @@
         <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="L58">
         <v>30</v>
@@ -2782,25 +2863,25 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
         <v>17</v>
@@ -2809,7 +2890,7 @@
         <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="L59">
         <v>30</v>
@@ -2817,25 +2898,25 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C60">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
         <v>17</v>
@@ -2844,7 +2925,7 @@
         <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="L60">
         <v>30</v>
@@ -2852,25 +2933,25 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
         <v>17</v>
@@ -2879,7 +2960,7 @@
         <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="L61">
         <v>30</v>
@@ -2887,106 +2968,841 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="L62">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J63" t="s">
         <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="L63">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>1500</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" t="s">
+        <v>53</v>
+      </c>
+      <c r="L64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>1500</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" t="s">
+        <v>54</v>
+      </c>
+      <c r="L65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>1500</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
         <v>6</v>
       </c>
-      <c r="B64">
+      <c r="C67">
+        <v>1500</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>63</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" t="s">
+        <v>84</v>
+      </c>
+      <c r="L67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>1500</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" t="s">
+        <v>85</v>
+      </c>
+      <c r="L68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>1500</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" t="s">
+        <v>86</v>
+      </c>
+      <c r="L69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
         <v>9</v>
       </c>
-      <c r="C64">
+      <c r="C70">
+        <v>1500</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" t="s">
+        <v>87</v>
+      </c>
+      <c r="L70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>1500</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" t="s">
+        <v>110</v>
+      </c>
+      <c r="L71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>1500</v>
+      </c>
+      <c r="D72">
+        <v>11</v>
+      </c>
+      <c r="E72">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" t="s">
+        <v>111</v>
+      </c>
+      <c r="L72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>1500</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" t="s">
+        <v>112</v>
+      </c>
+      <c r="L73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
         <v>1600</v>
       </c>
-      <c r="D64">
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" t="s">
+        <v>56</v>
+      </c>
+      <c r="L74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>1600</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>94</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>1600</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>94</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" t="s">
+        <v>58</v>
+      </c>
+      <c r="L76">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>1600</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>94</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" t="s">
+        <v>59</v>
+      </c>
+      <c r="L77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>1600</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>94</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" t="s">
+        <v>60</v>
+      </c>
+      <c r="L78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>1600</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>94</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>1600</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>94</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" t="s">
+        <v>89</v>
+      </c>
+      <c r="L80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>1600</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>94</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" t="s">
+        <v>90</v>
+      </c>
+      <c r="L81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82">
         <v>9</v>
       </c>
-      <c r="E64">
+      <c r="C82">
+        <v>1600</v>
+      </c>
+      <c r="D82">
         <v>9</v>
       </c>
-      <c r="F64" t="s">
+      <c r="E82">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
         <v>94</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G82" t="s">
         <v>22</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H82" t="s">
         <v>17</v>
       </c>
-      <c r="J64" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="J82" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82" t="s">
         <v>91</v>
       </c>
-      <c r="L64">
+      <c r="L82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>1600</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>94</v>
+      </c>
+      <c r="G83" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" t="s">
+        <v>113</v>
+      </c>
+      <c r="L83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>1600</v>
+      </c>
+      <c r="D84">
+        <v>11</v>
+      </c>
+      <c r="E84">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>94</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" t="s">
+        <v>114</v>
+      </c>
+      <c r="L84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>1600</v>
+      </c>
+      <c r="D85">
+        <v>12</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>94</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" t="s">
+        <v>115</v>
+      </c>
+      <c r="L85">
         <v>30</v>
       </c>
     </row>

--- a/Excel/Invasion.xlsx
+++ b/Excel/Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F869C1E-2DC9-4AD8-B5C0-05FB1FCB9DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137C864A-B81F-4B34-B37D-873DD5F8CDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A53DD-5DCE-4DDC-8DA5-FDED601CA3A9}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t>killSp|Float</t>
   </si>
   <si>
-    <t>Actor1002, Actor3021, Actor0024, Actor0125, Actor2128</t>
-  </si>
-  <si>
     <t>Actor0201, Actor2010, Actor1141, Actor0240</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>inva_6_12</t>
+  </si>
+  <si>
+    <t>Actor1002, Actor3021, Actor0024, Actor0125, Actor2128, Actor0233</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
         <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7">
         <v>40</v>
@@ -1054,7 +1054,7 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8">
         <v>40</v>
@@ -1092,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L9">
         <v>40</v>
@@ -1130,7 +1130,7 @@
         <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10">
         <v>40</v>
@@ -1168,7 +1168,7 @@
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11">
         <v>40</v>
@@ -1206,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12">
         <v>40</v>
@@ -1244,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L13">
         <v>40</v>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -1302,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -1337,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -1372,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -1407,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1442,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -1454,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L19">
         <v>20</v>
@@ -1477,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -1489,7 +1489,7 @@
         <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L20">
         <v>20</v>
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -1524,7 +1524,7 @@
         <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L21">
         <v>20</v>
@@ -1547,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -1559,7 +1559,7 @@
         <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L22">
         <v>20</v>
@@ -1582,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
@@ -1594,7 +1594,7 @@
         <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L23">
         <v>20</v>
@@ -1617,7 +1617,7 @@
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -1629,7 +1629,7 @@
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L24">
         <v>20</v>
@@ -1652,7 +1652,7 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -1664,7 +1664,7 @@
         <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L25">
         <v>20</v>
@@ -1874,7 +1874,7 @@
         <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L31">
         <v>30</v>
@@ -1909,7 +1909,7 @@
         <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L32">
         <v>30</v>
@@ -1944,7 +1944,7 @@
         <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L33">
         <v>30</v>
@@ -1979,7 +1979,7 @@
         <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L34">
         <v>30</v>
@@ -2014,7 +2014,7 @@
         <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L35">
         <v>30</v>
@@ -2049,7 +2049,7 @@
         <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L36">
         <v>30</v>
@@ -2084,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L37">
         <v>30</v>
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s">
         <v>18</v>
@@ -2145,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s">
         <v>18</v>
@@ -2183,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s">
         <v>18</v>
@@ -2221,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
         <v>18</v>
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
         <v>18</v>
@@ -2297,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s">
         <v>18</v>
@@ -2312,7 +2312,7 @@
         <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L43">
         <v>40</v>
@@ -2335,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
@@ -2350,7 +2350,7 @@
         <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L44">
         <v>40</v>
@@ -2373,7 +2373,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s">
         <v>18</v>
@@ -2388,7 +2388,7 @@
         <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L45">
         <v>40</v>
@@ -2411,7 +2411,7 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s">
         <v>18</v>
@@ -2426,7 +2426,7 @@
         <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L46">
         <v>40</v>
@@ -2449,7 +2449,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s">
         <v>18</v>
@@ -2464,7 +2464,7 @@
         <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L47">
         <v>40</v>
@@ -2487,7 +2487,7 @@
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s">
         <v>18</v>
@@ -2502,7 +2502,7 @@
         <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L48">
         <v>40</v>
@@ -2525,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
@@ -2540,7 +2540,7 @@
         <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L49">
         <v>40</v>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G50" t="s">
         <v>20</v>
@@ -2598,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -2633,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G52" t="s">
         <v>20</v>
@@ -2668,7 +2668,7 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" t="s">
         <v>20</v>
@@ -2703,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G54" t="s">
         <v>20</v>
@@ -2738,7 +2738,7 @@
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
@@ -2750,7 +2750,7 @@
         <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L55">
         <v>30</v>
@@ -2773,7 +2773,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s">
         <v>20</v>
@@ -2785,7 +2785,7 @@
         <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L56">
         <v>30</v>
@@ -2808,7 +2808,7 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
@@ -2820,7 +2820,7 @@
         <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L57">
         <v>30</v>
@@ -2843,7 +2843,7 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s">
         <v>20</v>
@@ -2855,7 +2855,7 @@
         <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L58">
         <v>30</v>
@@ -2878,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
@@ -2890,7 +2890,7 @@
         <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L59">
         <v>30</v>
@@ -2913,7 +2913,7 @@
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
@@ -2925,7 +2925,7 @@
         <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L60">
         <v>30</v>
@@ -2948,7 +2948,7 @@
         <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
@@ -2960,7 +2960,7 @@
         <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L61">
         <v>30</v>
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" t="s">
         <v>21</v>
@@ -3018,7 +3018,7 @@
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" t="s">
         <v>21</v>
@@ -3053,7 +3053,7 @@
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" t="s">
         <v>21</v>
@@ -3088,7 +3088,7 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" t="s">
         <v>21</v>
@@ -3123,7 +3123,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" t="s">
         <v>21</v>
@@ -3158,7 +3158,7 @@
         <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" t="s">
         <v>21</v>
@@ -3170,7 +3170,7 @@
         <v>23</v>
       </c>
       <c r="K67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L67">
         <v>20</v>
@@ -3193,7 +3193,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" t="s">
         <v>21</v>
@@ -3205,7 +3205,7 @@
         <v>23</v>
       </c>
       <c r="K68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L68">
         <v>20</v>
@@ -3228,7 +3228,7 @@
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" t="s">
         <v>21</v>
@@ -3240,7 +3240,7 @@
         <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L69">
         <v>20</v>
@@ -3263,7 +3263,7 @@
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" t="s">
         <v>21</v>
@@ -3275,7 +3275,7 @@
         <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L70">
         <v>20</v>
@@ -3298,7 +3298,7 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" t="s">
         <v>21</v>
@@ -3310,7 +3310,7 @@
         <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L71">
         <v>20</v>
@@ -3333,7 +3333,7 @@
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G72" t="s">
         <v>21</v>
@@ -3345,7 +3345,7 @@
         <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L72">
         <v>20</v>
@@ -3368,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G73" t="s">
         <v>21</v>
@@ -3380,7 +3380,7 @@
         <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L73">
         <v>20</v>
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G74" t="s">
         <v>22</v>
@@ -3438,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G75" t="s">
         <v>22</v>
@@ -3473,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G76" t="s">
         <v>22</v>
@@ -3508,7 +3508,7 @@
         <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G77" t="s">
         <v>22</v>
@@ -3543,7 +3543,7 @@
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G78" t="s">
         <v>22</v>
@@ -3578,7 +3578,7 @@
         <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G79" t="s">
         <v>22</v>
@@ -3590,7 +3590,7 @@
         <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L79">
         <v>30</v>
@@ -3613,7 +3613,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G80" t="s">
         <v>22</v>
@@ -3625,7 +3625,7 @@
         <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L80">
         <v>30</v>
@@ -3648,7 +3648,7 @@
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G81" t="s">
         <v>22</v>
@@ -3660,7 +3660,7 @@
         <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L81">
         <v>30</v>
@@ -3683,7 +3683,7 @@
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G82" t="s">
         <v>22</v>
@@ -3695,7 +3695,7 @@
         <v>23</v>
       </c>
       <c r="K82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L82">
         <v>30</v>
@@ -3718,7 +3718,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G83" t="s">
         <v>22</v>
@@ -3730,7 +3730,7 @@
         <v>23</v>
       </c>
       <c r="K83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L83">
         <v>30</v>
@@ -3753,7 +3753,7 @@
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G84" t="s">
         <v>22</v>
@@ -3765,7 +3765,7 @@
         <v>23</v>
       </c>
       <c r="K84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L84">
         <v>30</v>
@@ -3788,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G85" t="s">
         <v>22</v>
@@ -3800,7 +3800,7 @@
         <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L85">
         <v>30</v>
